--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject10.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject10.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.65936574028541428</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.90843364261726056</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0</v>
+        <v>0.79312231881426065</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -326,15 +326,15 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.80020593135401552</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.6627635770477539</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,10 +343,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.56386456088218662</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -367,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>0.85559454072973973</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -406,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>0</v>
+        <v>0.97786579686798158</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.71867225709792604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.53583392184230294</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.57343258098852745</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>0.71076852777530086</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.90529010713498559</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.66011576012282414</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.99545879528352765</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.52721431757224058</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -955,22 +955,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.57058865210286247</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.5654465892964784</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.92056352618067283</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.69516830662048679</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.61380730461921051</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.79812521117057345</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.58033161882477435</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.95164849122104833</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>0</v>
+        <v>0.80608340201498463</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.52632392166736319</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.53800590199310272</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.83804205525964703</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>0</v>
+        <v>0.9737342824088302</v>
       </c>
       <c r="V7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.75973001668077988</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.77257770503587242</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.75546289889526719</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.8561960721697699</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.51718709462452228</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,22 +1794,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.9205081835231399</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.65146918175096702</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.89177981254379191</v>
       </c>
       <c r="L9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="0">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0.70231409207301754</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.5537710738785544</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.58852491367895854</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.70217290103105312</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="0">
-        <v>0</v>
+        <v>0.7076862800795487</v>
       </c>
       <c r="BP10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.77916693176659302</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.81059055348648357</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.93759434874326075</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.94332644585749392</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>0.98984623513661751</v>
       </c>
       <c r="C12" s="0">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.67319229045477136</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.70866289039196839</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="BH12" s="0">
-        <v>1</v>
+        <v>0.63123755113952984</v>
       </c>
       <c r="BI12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.68037072143380928</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.56725430151641154</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.89139631752279902</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.55788282093106079</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.60658721813827743</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.82670088066492775</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.92568661111378447</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.98678034303218654</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.54790871289796039</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.60116245242452016</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0</v>
+        <v>0.98645496465739568</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.98524205889452654</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>0</v>
+        <v>0.57273828954621031</v>
       </c>
       <c r="AW15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>0.52966057544371559</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.68225443110304185</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.90649767696621864</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>0</v>
+        <v>0.96553591759299151</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.63223241838303523</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.97568559589718262</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.85890497409347932</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>0.98565361625036907</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.60023839659408673</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>0</v>
+        <v>0.90189724457502018</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.53341470846117489</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.71516639996260456</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>0.58789379697742117</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="0">
-        <v>0</v>
+        <v>0.55794364463306834</v>
       </c>
       <c r="BJ19" s="0">
         <v>0</v>
@@ -4093,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.61308306644825228</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.88548754781490557</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.97417417515951388</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.70850306336360613</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>0.72430745344395553</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0</v>
+        <v>0.55355062999037818</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.81698067375189232</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.90173862831076934</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.8667875398720879</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.784316353084205</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.54655278731435031</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>0</v>
+        <v>0.81503683109307401</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.59312323770903275</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0</v>
+        <v>0.8258685659315641</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.64468279773040094</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>0.56783663815204388</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4771,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>0</v>
+        <v>0.87014975569356079</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>0</v>
+        <v>0.66653370110285093</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4807,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="AX23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4920,16 +4920,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>0</v>
+        <v>0.87894017791781676</v>
       </c>
       <c r="T24" s="0">
-        <v>0</v>
+        <v>0.67088205793221189</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4947,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="0">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="0">
-        <v>0</v>
+        <v>0.96689448985332049</v>
       </c>
       <c r="BL24" s="0">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.62342969897271472</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.53081866445088899</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0</v>
+        <v>0.89620592346942907</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.88032390248100456</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.82931245072500692</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.95189235385746174</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5550,16 +5550,16 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0</v>
+        <v>0.61962277765031626</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.55455651533137518</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.54728472212149593</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.69807241097437811</v>
       </c>
       <c r="AD27" s="0">
-        <v>0</v>
+        <v>0.83505433468796031</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5759,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.70694386022574984</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.57971249645832912</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.64472089055923465</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.97279598030263648</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.89154211017254603</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5986,13 +5986,13 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.82063226762899544</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>0</v>
+        <v>0.77717964631743697</v>
       </c>
       <c r="AH29" s="0">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0</v>
+        <v>0.65936385524885022</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.50909163976332561</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.60682400437487405</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AO30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0</v>
+        <v>0.74531106376008838</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.77544498328025546</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.89399839375890633</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.70680758233661245</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.88819550585779061</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.93024928710132604</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.96040692518841952</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.74042129249552624</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>0.8210322443515039</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6804,25 +6804,25 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0">
-        <v>0</v>
+        <v>0.94755591763839386</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.55183655924726294</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.80293141735862927</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.92927719302643363</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>0</v>
+        <v>0.98198667144841689</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.67111437646310779</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.67667885461628396</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.55406528049790116</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="BC34" s="0">
-        <v>0</v>
+        <v>0.67283204474616687</v>
       </c>
       <c r="BD34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.58702591851948549</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.51391265727719104</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.99937002814028508</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.73199269079895679</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.53956105714940406</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.69992413956601784</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.55761261309330568</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.86106657065543291</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.97445493005782902</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.81485964913482001</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.7417138322287149</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.88353770782315055</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7813,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>0</v>
+        <v>0.50428085310128812</v>
       </c>
       <c r="W38" s="0">
-        <v>0</v>
+        <v>0.57430801527186115</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.5013420575019224</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.86741640386458474</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.76738427603124049</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="BL38" s="0">
-        <v>0</v>
+        <v>0.73298519583419486</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -8004,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0</v>
+        <v>0.5504335710890973</v>
       </c>
       <c r="R39" s="0">
-        <v>0</v>
+        <v>0.86552298869218736</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.95898233038739455</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.83888034710945547</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.88770673595576366</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.95513611172410617</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>0</v>
+        <v>0.99335128143495255</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.87990954053200254</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.95210991929847877</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.50025186659122745</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8410,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.89505294733970531</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.98850036577421729</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.94924157321950675</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ41" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.97312102141290135</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.53619216225254274</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.98476763954830515</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.61360725863380128</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>0</v>
+        <v>0.80945575354587684</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.96096494922518305</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.87433526707630671</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.67095079221238207</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.69231067072452857</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>0</v>
+        <v>0.91065607495144119</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.59836572112790998</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.99466568502400154</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.88455090224649546</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.81015072691521084</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.73563715067360236</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.97012270953835777</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.98573509228970202</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" s="0">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.88331895537061333</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.63258117585613705</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.51382081803896507</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.62099790007431133</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.76579263635030581</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.87481315759691136</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.56334829439234335</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>0</v>
+        <v>0.99287599909831981</v>
       </c>
     </row>
     <row r="48">
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>0</v>
+        <v>0.57120209013754275</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.67061571407939136</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.56963202541040392</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.9418393013092774</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.89556673126028197</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.85491676933397165</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.66155281606121674</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.89733465724973249</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.69208013806106117</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.89415054010109141</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.92307723923568019</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.78020553078346166</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.58316397750767268</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,13 +10584,13 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.68134012238965669</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0</v>
+        <v>0.57993699807304533</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0</v>
+        <v>0.59874276471151822</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.60723441897053965</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>0</v>
+        <v>0.98090648109362322</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.51696796897821184</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="BO53" s="0">
-        <v>0</v>
+        <v>0.91978417302280202</v>
       </c>
       <c r="BP53" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11199,16 +11199,16 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.57496321039301823</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.71376106258206751</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0</v>
+        <v>0.65568968603484612</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>0</v>
+        <v>0.65376484126958068</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11402,25 +11402,25 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>0</v>
+        <v>0.81316148557670598</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.60883182793196167</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.91328172857647116</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
+        <v>0.72326107050928634</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0">
         <v>0</v>
@@ -11620,19 +11620,19 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.91591248180193419</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.67066130024712856</v>
       </c>
       <c r="BG56" s="0">
-        <v>0</v>
+        <v>0.8703713827009274</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.65461518911534811</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.60733038098898273</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.61422810043633813</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.65278883563233836</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="BL57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM57" s="0">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>0</v>
+        <v>0.85827767377783404</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.84714290050449415</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.50129344978115742</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.52542014127758319</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12241,22 +12241,22 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0</v>
+        <v>0.63876734345090003</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.91235482759997311</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.87687843500088958</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.53199978189862829</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>1</v>
+        <v>0.71643963516056031</v>
       </c>
       <c r="M60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0</v>
+        <v>0.89966093833835381</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12453,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.64014314537040562</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.7303681977199743</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0">
-        <v>0</v>
+        <v>0.53339837704304993</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.5115423953051097</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.53764506084908348</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0.51316097959215801</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12874,19 +12874,19 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.80037791534276237</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>0</v>
+        <v>0.7396769127351539</v>
       </c>
       <c r="Y63" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.65870468115148628</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.85600349492646943</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.57208372050212519</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.65260239171286938</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="0">
-        <v>0</v>
+        <v>0.8863071566648093</v>
       </c>
       <c r="AM64" s="0">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="BE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.83994271303276768</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.54796349374250741</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0</v>
+        <v>0.74836865024706301</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13495,22 +13495,22 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.55935916400043872</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.98817290592966611</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.90171775904421936</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.88014190828966588</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.76994616201516597</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.83374517221701805</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.68430821380455731</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.61628318384627034</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0</v>
+        <v>0.61171766951714313</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0</v>
+        <v>0.94865145367279124</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>0</v>
+        <v>0.78581371315578674</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.88774032603277253</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.95093582540825283</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.80583498786211138</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.60563065410752615</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>0</v>
+        <v>0.91839482242501025</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.93085686534383705</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.7461593152535011</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject10.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject10.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.65936574028541428</v>
+        <v>0.6627635770477539</v>
       </c>
       <c r="C1" s="0">
         <v>0.90843364261726056</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0.79312231881426065</v>
+        <v>0.8210322443515039</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56386456088218662</v>
+        <v>0.66011576012282414</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -367,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0.85559454072973973</v>
+        <v>0.98984623513661751</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.53583392184230294</v>
+        <v>0.90843364261726056</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.99545879528352765</v>
       </c>
       <c r="F4" s="0">
-        <v>0.52721431757224058</v>
+        <v>0.61380730461921051</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.57058865210286247</v>
+        <v>0.57343258098852745</v>
       </c>
       <c r="D5" s="0">
-        <v>0.5654465892964784</v>
+        <v>0.99545879528352765</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0.61380730461921051</v>
       </c>
       <c r="E6" s="0">
-        <v>0.79812521117057345</v>
+        <v>0.92056352618067283</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>0.80608340201498463</v>
+        <v>0.91065607495144119</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.52632392166736319</v>
+        <v>0.69516830662048679</v>
       </c>
       <c r="F7" s="0">
-        <v>0.53800590199310272</v>
+        <v>0.58033161882477435</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.75973001668077988</v>
+        <v>0.97312102141290135</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.77257770503587242</v>
+        <v>0.95164849122104833</v>
       </c>
       <c r="G8" s="0">
-        <v>0.75546289889526719</v>
+        <v>0.83804205525964703</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.8561960721697699</v>
+        <v>0.9205081835231399</v>
       </c>
       <c r="J8" s="0">
-        <v>0.51718709462452228</v>
+        <v>0.5537710738785544</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>0.5537710738785544</v>
       </c>
       <c r="I10" s="0">
-        <v>0.58852491367895854</v>
+        <v>0.65146918175096702</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.70217290103105312</v>
+        <v>0.81059055348648357</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.77916693176659302</v>
+        <v>0.89177981254379191</v>
       </c>
       <c r="J11" s="0">
         <v>0.81059055348648357</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.67319229045477136</v>
+        <v>0.93759434874326075</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="BH12" s="0">
-        <v>0.63123755113952984</v>
+        <v>0.71643963516056031</v>
       </c>
       <c r="BI12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.68037072143380928</v>
+        <v>0.94332644585749392</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.56725430151641154</v>
+        <v>0.60658721813827743</v>
       </c>
       <c r="O13" s="0">
-        <v>0.89139631752279902</v>
+        <v>0.98678034303218654</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.55788282093106079</v>
+        <v>0.70866289039196839</v>
       </c>
       <c r="M14" s="0">
         <v>0.60658721813827743</v>
@@ -3051,7 +3051,7 @@
         <v>0.98678034303218654</v>
       </c>
       <c r="N15" s="0">
-        <v>0.54790871289796039</v>
+        <v>0.82670088066492775</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.60116245242452016</v>
+        <v>0.63223241838303523</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0.52966057544371559</v>
+        <v>0.71076852777530086</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.68225443110304185</v>
+        <v>0.92568661111378447</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.90649767696621864</v>
+        <v>0.97568559589718262</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.60023839659408673</v>
+        <v>0.61308306644825228</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.53341470846117489</v>
+        <v>0.85890497409347932</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.71516639996260456</v>
+        <v>0.88548754781490557</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0.58789379697742117</v>
+        <v>0.87894017791781676</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.97417417515951388</v>
       </c>
       <c r="V20" s="0">
-        <v>0.70850306336360613</v>
+        <v>0.8667875398720879</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0.55355062999037818</v>
+        <v>0.9737342824088302</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.81698067375189232</v>
+        <v>0.97417417515951388</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>0.8667875398720879</v>
       </c>
       <c r="U22" s="0">
-        <v>0.784316353084205</v>
+        <v>0.90173862831076934</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.54655278731435031</v>
+        <v>0.64468279773040094</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0.81503683109307401</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.59312323770903275</v>
+        <v>0.95898233038739455</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.56783663815204388</v>
+        <v>0.61962277765031626</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.66653370110285093</v>
+        <v>0.99335128143495255</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0.87894017791781676</v>
       </c>
       <c r="T24" s="0">
-        <v>0.67088205793221189</v>
+        <v>0.72430745344395553</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.62342969897271472</v>
+        <v>0.88032390248100456</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.53081866445088899</v>
+        <v>0.55455651533137518</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0.55455651533137518</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.54728472212149593</v>
+        <v>0.82931245072500692</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.69807241097437811</v>
+        <v>0.97279598030263648</v>
       </c>
       <c r="AD27" s="0">
         <v>0.83505433468796031</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.70694386022574984</v>
+        <v>0.95189235385746174</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.57971249645832912</v>
+        <v>0.89154211017254603</v>
       </c>
       <c r="AD28" s="0">
         <v>0.64472089055923465</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>0.77717964631743697</v>
+        <v>0.94755591763839386</v>
       </c>
       <c r="AH29" s="0">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.65936385524885022</v>
+        <v>0.83505433468796031</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.50909163976332561</v>
+        <v>0.64472089055923465</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.60682400437487405</v>
+        <v>0.89399839375890633</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0.74531106376008838</v>
+        <v>0.98645496465739568</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.77544498328025546</v>
+        <v>0.82063226762899544</v>
       </c>
       <c r="AD31" s="0">
         <v>0.89399839375890633</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.70680758233661245</v>
+        <v>0.93024928710132604</v>
       </c>
       <c r="AG31" s="0">
         <v>0.88819550585779061</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.55183655924726294</v>
+        <v>0.88819550585779061</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.80293141735862927</v>
+        <v>0.96040692518841952</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.67111437646310779</v>
+        <v>0.74042129249552624</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.58702591851948549</v>
+        <v>0.92927719302643363</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.51391265727719104</v>
+        <v>0.67667885461628396</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.99937002814028508</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.73199269079895679</v>
+        <v>0.97445493005782902</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,16 +7437,16 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.53956105714940406</v>
+        <v>0.55406528049790116</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.69992413956601784</v>
+        <v>0.99937002814028508</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.55761261309330568</v>
+        <v>0.81485964913482001</v>
       </c>
       <c r="AL36" s="0">
         <v>0.86106657065543291</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.7417138322287149</v>
+        <v>0.86741640386458474</v>
       </c>
       <c r="AM37" s="0">
         <v>0.88353770782315055</v>
@@ -7813,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>0.50428085310128812</v>
+        <v>0.81503683109307401</v>
       </c>
       <c r="W38" s="0">
-        <v>0.57430801527186115</v>
+        <v>0.87014975569356079</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.5013420575019224</v>
+        <v>0.86106657065543291</v>
       </c>
       <c r="AK38" s="0">
         <v>0.86741640386458474</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.76738427603124049</v>
+        <v>0.88770673595576366</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="BL38" s="0">
-        <v>0.73298519583419486</v>
+        <v>0.8863071566648093</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -8004,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.5504335710890973</v>
+        <v>0.98565361625036907</v>
       </c>
       <c r="R39" s="0">
-        <v>0.86552298869218736</v>
+        <v>0.90189724457502018</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.83888034710945547</v>
+        <v>0.88353770782315055</v>
       </c>
       <c r="AL39" s="0">
         <v>0.88770673595576366</v>
@@ -8276,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.87990954053200254</v>
+        <v>0.95513611172410617</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.95210991929847877</v>
+        <v>0.98850036577421729</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.50025186659122745</v>
+        <v>0.53619216225254274</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0.89505294733970531</v>
+        <v>0.98524205889452654</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.94924157321950675</v>
+        <v>0.96096494922518305</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>0.80945575354587684</v>
+        <v>0.98090648109362322</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8903,16 +8903,16 @@
         <v>0.96096494922518305</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.87433526707630671</v>
+        <v>0.98476763954830515</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.67095079221238207</v>
+        <v>0.99466568502400154</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.69231067072452857</v>
+        <v>0.81015072691521084</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.59836572112790998</v>
+        <v>0.61360725863380128</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.99466568502400154</v>
@@ -9321,7 +9321,7 @@
         <v>0.81015072691521084</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.73563715067360236</v>
+        <v>0.88455090224649546</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.88331895537061333</v>
+        <v>0.97012270953835777</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.63258117585613705</v>
+        <v>0.76579263635030581</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.51382081803896507</v>
+        <v>0.67061571407939136</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.62099790007431133</v>
+        <v>0.98573509228970202</v>
       </c>
       <c r="AT47" s="0">
         <v>0.76579263635030581</v>
@@ -9748,7 +9748,7 @@
         <v>0.87481315759691136</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.56334829439234335</v>
+        <v>0.89556673126028197</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>0.57120209013754275</v>
+        <v>0.57273828954621031</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0.67061571407939136</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.56963202541040392</v>
+        <v>0.87481315759691136</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>0.89556673126028197</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.85491676933397165</v>
+        <v>0.9418393013092774</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.66155281606121674</v>
+        <v>0.89415054010109141</v>
       </c>
       <c r="AY49" s="0">
         <v>0.89733465724973249</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0.69208013806106117</v>
+        <v>0.90529010713498559</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.78020553078346166</v>
+        <v>0.89733465724973249</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.58316397750767268</v>
+        <v>0.92307723923568019</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0.57993699807304533</v>
+        <v>0.81316148557670598</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0.59874276471151822</v>
+        <v>0.89620592346942907</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.51696796897821184</v>
+        <v>0.68134012238965669</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.57496321039301823</v>
+        <v>0.60723441897053965</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0.65568968603484612</v>
+        <v>0.89966093833835381</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>0.65376484126958068</v>
+        <v>0.67283204474616687</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.60883182793196167</v>
+        <v>0.71376106258206751</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0.72326107050928634</v>
+        <v>0.97786579686798158</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.91591248180193419</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.67066130024712856</v>
+        <v>0.84714290050449415</v>
       </c>
       <c r="BG56" s="0">
         <v>0.8703713827009274</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.65461518911534811</v>
+        <v>0.91328172857647116</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.60733038098898273</v>
+        <v>0.91591248180193419</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0.61422810043633813</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.65278883563233836</v>
+        <v>0.91235482759997311</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>0.85827767377783404</v>
+        <v>0.98198667144841689</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0.84714290050449415</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.50129344978115742</v>
+        <v>0.61422810043633813</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.52542014127758319</v>
+        <v>0.87687843500088958</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0.63876734345090003</v>
+        <v>0.8703713827009274</v>
       </c>
       <c r="BE59" s="0">
         <v>0.91235482759997311</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.53199978189862829</v>
+        <v>0.64014314537040562</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0">
-        <v>0.53339837704304993</v>
+        <v>0.55794364463306834</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.5115423953051097</v>
+        <v>0.7303681977199743</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.53764506084908348</v>
+        <v>0.65870468115148628</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>0.51316097959215801</v>
+        <v>0.70231409207301754</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.80037791534276237</v>
+        <v>0.85600349492646943</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>0.7396769127351539</v>
+        <v>0.96689448985332049</v>
       </c>
       <c r="Y63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.57208372050212519</v>
+        <v>0.83994271303276768</v>
       </c>
       <c r="BM63" s="0">
         <v>0.65260239171286938</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.54796349374250741</v>
+        <v>0.88014190828966588</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0.74836865024706301</v>
+        <v>0.8258685659315641</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.55935916400043872</v>
+        <v>0.65260239171286938</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13710,21 +13710,21 @@
         <v>0.88014190828966588</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.76994616201516597</v>
+        <v>0.98817290592966611</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.83374517221701805</v>
+        <v>0.95093582540825283</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.68430821380455731</v>
+        <v>0.93085686534383705</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.61628318384627034</v>
+        <v>0.80020593135401552</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0.61171766951714313</v>
+        <v>0.7076862800795487</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0.94865145367279124</v>
+        <v>0.96553591759299151</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>0.78581371315578674</v>
+        <v>0.91978417302280202</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.88774032603277253</v>
+        <v>0.90171775904421936</v>
       </c>
       <c r="BN67" s="0">
         <v>0.95093582540825283</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.60563065410752615</v>
+        <v>0.71867225709792604</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>0.91839482242501025</v>
+        <v>0.99287599909831981</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.93085686534383705</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.7461593152535011</v>
+        <v>0.80583498786211138</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
